--- a/ICMR/2017年度/03_タスク洗い出し/インカレ準備パート別ToDo_N／Gクラス.xlsx
+++ b/ICMR/2017年度/03_タスク洗い出し/インカレ準備パート別ToDo_N／Gクラス.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\orienteering\ICMR2017\運責\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Documents\GitHub\citizen_task\ICMR\2017年度\03_タスク洗い出し\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="5850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メンバー　業務内容" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>パート名</t>
   </si>
@@ -134,6 +134,200 @@
   </si>
   <si>
     <t>期日2/28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N/Gクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梶原裕希</t>
+    <rPh sb="0" eb="2">
+      <t>カジハラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>資材を申請する</t>
+    <rPh sb="0" eb="2">
+      <t>シザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/1/14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期日1/14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/2/3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミドルリレー競技との兼ね合いを確認する</t>
+    <rPh sb="6" eb="8">
+      <t>キョウギ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2人</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミドルの日のみ実施に決定</t>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コースを作成する</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2人以上</t>
+    <rPh sb="1" eb="4">
+      <t>ニンイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未済</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加賞を用意する</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周辺住民の方に広報する</t>
+    <rPh sb="0" eb="2">
+      <t>シュウヘン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュウミン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事前申し込みのシステムを作る</t>
+    <rPh sb="0" eb="2">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A5サイズの賞状の作成</t>
+    <rPh sb="6" eb="8">
+      <t>ショウジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/2/9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N/Gクラス受付の場所の提供依頼をする</t>
+    <rPh sb="6" eb="8">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イライ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -292,7 +486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,9 +529,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -384,6 +575,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -393,6 +590,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -712,19 +918,19 @@
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="23.25" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="36.4140625" customWidth="1"/>
+    <col min="6" max="6" width="36.375" customWidth="1"/>
     <col min="7" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="24.9140625" customWidth="1"/>
+    <col min="10" max="10" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -732,11 +938,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
@@ -756,265 +964,343 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="E4" s="18" t="s">
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="30" t="s">
+      <c r="E5" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="30"/>
+      <c r="E6" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="31"/>
       <c r="C7" s="6"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="E7" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="30"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="31"/>
       <c r="C8" s="7"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="30"/>
+      <c r="E8" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="31"/>
       <c r="C9" s="8"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="E9" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="30"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="31"/>
       <c r="C10" s="8"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="E10" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="30"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="31"/>
       <c r="C11" s="8"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="E11" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="30"/>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="31"/>
       <c r="C12" s="8"/>
       <c r="E12" s="11"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="30"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="31"/>
       <c r="C13" s="8"/>
       <c r="E13" s="11"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="30"/>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="31"/>
       <c r="C14" s="8"/>
       <c r="E14" s="11"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="30"/>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="31"/>
       <c r="C15" s="8"/>
       <c r="E15" s="11"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="30"/>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="31"/>
       <c r="C16" s="8"/>
       <c r="E16" s="11"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="30"/>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="31"/>
       <c r="C17" s="8"/>
       <c r="E17" s="11"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="30"/>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="31"/>
       <c r="C18" s="8"/>
       <c r="E18" s="11"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="30"/>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="31"/>
       <c r="C19" s="8"/>
       <c r="E19" s="11"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="30"/>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="31"/>
       <c r="C20" s="8"/>
       <c r="E20" s="11"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="30"/>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="31"/>
       <c r="C21" s="8"/>
       <c r="E21" s="11"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="30"/>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="31"/>
       <c r="C22" s="8"/>
       <c r="E22" s="11"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="30"/>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="31"/>
       <c r="C23" s="8"/>
       <c r="E23" s="11"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="30"/>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="31"/>
       <c r="C24" s="8"/>
       <c r="E24" s="11"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="30"/>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="31"/>
       <c r="C25" s="8"/>
       <c r="E25" s="11"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="30"/>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="31"/>
       <c r="C26" s="3"/>
       <c r="E26" s="11"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="31"/>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="32"/>
       <c r="C27" s="5"/>
       <c r="E27" s="11"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C28" s="4"/>
     </row>
   </sheetData>
@@ -1031,153 +1317,153 @@
   <dimension ref="A2:S27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="40.25" customWidth="1"/>
-    <col min="4" max="15" width="8.58203125" customWidth="1"/>
+    <col min="4" max="15" width="8.625" customWidth="1"/>
     <col min="16" max="18" width="13.75" customWidth="1"/>
-    <col min="19" max="19" width="21.1640625" customWidth="1"/>
+    <col min="19" max="19" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="D2" s="32" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="32" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="32" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>0.5</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <v>0.75</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="21">
         <v>0.5</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="21">
         <v>0.58333333333333337</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="21">
         <v>0.66666666666666663</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="21">
         <v>0.75</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="23">
         <v>0.83333333333333337</v>
       </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="21" t="s">
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26" t="str">
         <f>'メンバー　業務内容'!C3</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="28" t="s">
+        <v>N/Gクラス</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="25" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="27">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B5" s="26" t="str">
         <f>'メンバー　業務内容'!C4</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
+        <v>梶原裕希</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="27">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B6" s="26">
         <f>'メンバー　業務内容'!C5</f>
         <v>0</v>
       </c>
@@ -1195,12 +1481,12 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="27">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B7" s="26">
         <f>'メンバー　業務内容'!C6</f>
         <v>0</v>
       </c>
@@ -1218,12 +1504,12 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="27">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B8" s="26">
         <f>'メンバー　業務内容'!C7</f>
         <v>0</v>
       </c>
@@ -1241,12 +1527,12 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="27">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B9" s="26">
         <f>'メンバー　業務内容'!C8</f>
         <v>0</v>
       </c>
@@ -1264,12 +1550,12 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="27">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B10" s="26">
         <f>'メンバー　業務内容'!C9</f>
         <v>0</v>
       </c>
@@ -1287,12 +1573,12 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="27">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B11" s="26">
         <f>'メンバー　業務内容'!C10</f>
         <v>0</v>
       </c>
@@ -1310,12 +1596,12 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="27">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="26">
         <f>'メンバー　業務内容'!C11</f>
         <v>0</v>
       </c>
@@ -1333,12 +1619,12 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="27">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B13" s="26">
         <f>'メンバー　業務内容'!C12</f>
         <v>0</v>
       </c>
@@ -1356,12 +1642,12 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="27">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B14" s="26">
         <f>'メンバー　業務内容'!C13</f>
         <v>0</v>
       </c>
@@ -1379,12 +1665,12 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="27">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B15" s="26">
         <f>'メンバー　業務内容'!C14</f>
         <v>0</v>
       </c>
@@ -1402,12 +1688,12 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="27">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B16" s="26">
         <f>'メンバー　業務内容'!C15</f>
         <v>0</v>
       </c>
@@ -1425,12 +1711,12 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="27">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B17" s="26">
         <f>'メンバー　業務内容'!C16</f>
         <v>0</v>
       </c>
@@ -1448,12 +1734,12 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="27">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B18" s="26">
         <f>'メンバー　業務内容'!C17</f>
         <v>0</v>
       </c>
@@ -1471,12 +1757,12 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="27">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B19" s="26">
         <f>'メンバー　業務内容'!C18</f>
         <v>0</v>
       </c>
@@ -1494,12 +1780,12 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="27">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B20" s="26">
         <f>'メンバー　業務内容'!C19</f>
         <v>0</v>
       </c>
@@ -1517,12 +1803,12 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="27">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B21" s="26">
         <f>'メンバー　業務内容'!C20</f>
         <v>0</v>
       </c>
@@ -1540,12 +1826,12 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="27">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B22" s="26">
         <f>'メンバー　業務内容'!C21</f>
         <v>0</v>
       </c>
@@ -1563,12 +1849,12 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="27">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B23" s="26">
         <f>'メンバー　業務内容'!C22</f>
         <v>0</v>
       </c>
@@ -1586,12 +1872,12 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="27">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B24" s="26">
         <f>'メンバー　業務内容'!C23</f>
         <v>0</v>
       </c>
@@ -1609,12 +1895,12 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="27">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B25" s="26">
         <f>'メンバー　業務内容'!C24</f>
         <v>0</v>
       </c>
@@ -1632,12 +1918,12 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="27">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B26" s="26">
         <f>'メンバー　業務内容'!C25</f>
         <v>0</v>
       </c>
@@ -1655,12 +1941,12 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="27">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B27" s="26">
         <f>'メンバー　業務内容'!C26</f>
         <v>0</v>
       </c>
@@ -1678,8 +1964,8 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
       <c r="S27" s="1"/>
     </row>
   </sheetData>
@@ -1700,154 +1986,154 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEC8E71-A795-3A4C-AC12-EB531B49BCBD}">
   <dimension ref="A2:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="40.25" customWidth="1"/>
-    <col min="4" max="15" width="8.58203125" customWidth="1"/>
+    <col min="4" max="15" width="8.625" customWidth="1"/>
     <col min="16" max="18" width="13.75" customWidth="1"/>
-    <col min="19" max="19" width="21.1640625" customWidth="1"/>
+    <col min="19" max="19" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="D2" s="32" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="D2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="32" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="32" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>0.5</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <v>0.75</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="21">
         <v>0.5</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="21">
         <v>0.58333333333333337</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="21">
         <v>0.66666666666666663</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="21">
         <v>0.75</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="23">
         <v>0.83333333333333337</v>
       </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="21" t="s">
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26" t="str">
         <f>'メンバー　業務内容'!C3</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="19" t="s">
+        <v>N/Gクラス</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="25" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="27">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B5" s="26" t="str">
         <f>'メンバー　業務内容'!C4</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
+        <v>梶原裕希</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="27">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B6" s="26">
         <f>'メンバー　業務内容'!C5</f>
         <v>0</v>
       </c>
@@ -1865,12 +2151,12 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="27">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B7" s="26">
         <f>'メンバー　業務内容'!C6</f>
         <v>0</v>
       </c>
@@ -1888,12 +2174,12 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="27">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B8" s="26">
         <f>'メンバー　業務内容'!C7</f>
         <v>0</v>
       </c>
@@ -1911,12 +2197,12 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="27">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B9" s="26">
         <f>'メンバー　業務内容'!C8</f>
         <v>0</v>
       </c>
@@ -1934,12 +2220,12 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="27">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B10" s="26">
         <f>'メンバー　業務内容'!C9</f>
         <v>0</v>
       </c>
@@ -1957,12 +2243,12 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="27">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B11" s="26">
         <f>'メンバー　業務内容'!C10</f>
         <v>0</v>
       </c>
@@ -1980,12 +2266,12 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="27">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B12" s="26">
         <f>'メンバー　業務内容'!C11</f>
         <v>0</v>
       </c>
@@ -2003,12 +2289,12 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="27">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B13" s="26">
         <f>'メンバー　業務内容'!C12</f>
         <v>0</v>
       </c>
@@ -2026,12 +2312,12 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="27">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B14" s="26">
         <f>'メンバー　業務内容'!C13</f>
         <v>0</v>
       </c>
@@ -2049,12 +2335,12 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="27">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B15" s="26">
         <f>'メンバー　業務内容'!C14</f>
         <v>0</v>
       </c>
@@ -2072,12 +2358,12 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="27">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B16" s="26">
         <f>'メンバー　業務内容'!C15</f>
         <v>0</v>
       </c>
@@ -2095,12 +2381,12 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="27">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B17" s="26">
         <f>'メンバー　業務内容'!C16</f>
         <v>0</v>
       </c>
@@ -2118,12 +2404,12 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="27">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B18" s="26">
         <f>'メンバー　業務内容'!C17</f>
         <v>0</v>
       </c>
@@ -2141,12 +2427,12 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="27">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B19" s="26">
         <f>'メンバー　業務内容'!C18</f>
         <v>0</v>
       </c>
@@ -2164,12 +2450,12 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="27">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B20" s="26">
         <f>'メンバー　業務内容'!C19</f>
         <v>0</v>
       </c>
@@ -2187,12 +2473,12 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="27">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B21" s="26">
         <f>'メンバー　業務内容'!C20</f>
         <v>0</v>
       </c>
@@ -2210,12 +2496,12 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="27">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B22" s="26">
         <f>'メンバー　業務内容'!C21</f>
         <v>0</v>
       </c>
@@ -2233,12 +2519,12 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="27">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B23" s="26">
         <f>'メンバー　業務内容'!C22</f>
         <v>0</v>
       </c>
@@ -2256,12 +2542,12 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="27">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B24" s="26">
         <f>'メンバー　業務内容'!C23</f>
         <v>0</v>
       </c>
@@ -2279,12 +2565,12 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="27">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B25" s="26">
         <f>'メンバー　業務内容'!C24</f>
         <v>0</v>
       </c>
@@ -2302,12 +2588,12 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="27">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B26" s="26">
         <f>'メンバー　業務内容'!C25</f>
         <v>0</v>
       </c>
@@ -2325,12 +2611,12 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="27">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B27" s="26">
         <f>'メンバー　業務内容'!C26</f>
         <v>0</v>
       </c>
@@ -2348,8 +2634,8 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
       <c r="S27" s="1"/>
     </row>
   </sheetData>
@@ -2370,230 +2656,230 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7608ABA-B56F-814E-BC58-6A6F752A7CDF}">
   <dimension ref="A2:AE27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="40.25" customWidth="1"/>
-    <col min="4" max="27" width="8.58203125" customWidth="1"/>
+    <col min="4" max="27" width="8.625" customWidth="1"/>
     <col min="28" max="30" width="13.75" customWidth="1"/>
-    <col min="31" max="31" width="21.1640625" customWidth="1"/>
+    <col min="31" max="31" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="D2" s="32" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="D2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="32" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32" t="s">
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="32" t="s">
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="32" t="s">
+      <c r="AC2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="32" t="s">
+      <c r="AD2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="32" t="s">
+      <c r="AE2" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
       <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>0.5</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="21">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <v>0.75</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <v>0.83333333333333337</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="21">
         <v>0.5</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="21">
         <v>0.58333333333333337</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="21">
         <v>0.66666666666666663</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N3" s="21">
         <v>0.75</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="21">
         <v>0.83333333333333337</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="21">
         <v>0.5</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="21">
         <v>0.58333333333333337</v>
       </c>
-      <c r="S3" s="22">
+      <c r="S3" s="21">
         <v>0.66666666666666663</v>
       </c>
-      <c r="T3" s="22">
+      <c r="T3" s="21">
         <v>0.75</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="21">
         <v>0.83333333333333337</v>
       </c>
-      <c r="V3" s="22">
+      <c r="V3" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="W3" s="22">
+      <c r="W3" s="21">
         <v>0.5</v>
       </c>
-      <c r="X3" s="22">
+      <c r="X3" s="21">
         <v>0.58333333333333337</v>
       </c>
-      <c r="Y3" s="22">
+      <c r="Y3" s="21">
         <v>0.66666666666666663</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="21">
         <v>0.75</v>
       </c>
-      <c r="AA3" s="24">
+      <c r="AA3" s="23">
         <v>0.83333333333333337</v>
       </c>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="21" t="s">
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26" t="str">
         <f>'メンバー　業務内容'!C3</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="19" t="s">
+        <v>N/Gクラス</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="25" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="26" t="s">
+      <c r="AC4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AD4" s="26" t="s">
+      <c r="AD4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AE4" s="25" t="s">
+      <c r="AE4" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="27">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B5" s="26" t="str">
         <f>'メンバー　業務内容'!C4</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
+        <v>梶原裕希</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="27">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B6" s="26">
         <f>'メンバー　業務内容'!C5</f>
         <v>0</v>
       </c>
@@ -2623,12 +2909,12 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="27">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B7" s="26">
         <f>'メンバー　業務内容'!C6</f>
         <v>0</v>
       </c>
@@ -2658,12 +2944,12 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="27">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B8" s="26">
         <f>'メンバー　業務内容'!C7</f>
         <v>0</v>
       </c>
@@ -2693,12 +2979,12 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="27">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B9" s="26">
         <f>'メンバー　業務内容'!C8</f>
         <v>0</v>
       </c>
@@ -2728,12 +3014,12 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="27">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B10" s="26">
         <f>'メンバー　業務内容'!C9</f>
         <v>0</v>
       </c>
@@ -2763,12 +3049,12 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="27">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B11" s="26">
         <f>'メンバー　業務内容'!C10</f>
         <v>0</v>
       </c>
@@ -2798,12 +3084,12 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="27">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B12" s="26">
         <f>'メンバー　業務内容'!C11</f>
         <v>0</v>
       </c>
@@ -2833,12 +3119,12 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="27">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B13" s="26">
         <f>'メンバー　業務内容'!C12</f>
         <v>0</v>
       </c>
@@ -2868,12 +3154,12 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
       <c r="AE13" s="1"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="27">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B14" s="26">
         <f>'メンバー　業務内容'!C13</f>
         <v>0</v>
       </c>
@@ -2903,12 +3189,12 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
       <c r="AE14" s="1"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="27">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B15" s="26">
         <f>'メンバー　業務内容'!C14</f>
         <v>0</v>
       </c>
@@ -2938,12 +3224,12 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
       <c r="AE15" s="1"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="27">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="B16" s="26">
         <f>'メンバー　業務内容'!C15</f>
         <v>0</v>
       </c>
@@ -2973,12 +3259,12 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="27">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B17" s="26">
         <f>'メンバー　業務内容'!C16</f>
         <v>0</v>
       </c>
@@ -3008,12 +3294,12 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="27">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B18" s="26">
         <f>'メンバー　業務内容'!C17</f>
         <v>0</v>
       </c>
@@ -3043,12 +3329,12 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
       <c r="AE18" s="1"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="27">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B19" s="26">
         <f>'メンバー　業務内容'!C18</f>
         <v>0</v>
       </c>
@@ -3078,12 +3364,12 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="27">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B20" s="26">
         <f>'メンバー　業務内容'!C19</f>
         <v>0</v>
       </c>
@@ -3113,12 +3399,12 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="27">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B21" s="26">
         <f>'メンバー　業務内容'!C20</f>
         <v>0</v>
       </c>
@@ -3148,12 +3434,12 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
       <c r="AE21" s="1"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="27">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B22" s="26">
         <f>'メンバー　業務内容'!C21</f>
         <v>0</v>
       </c>
@@ -3183,12 +3469,12 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
       <c r="AE22" s="1"/>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="27">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B23" s="26">
         <f>'メンバー　業務内容'!C22</f>
         <v>0</v>
       </c>
@@ -3218,12 +3504,12 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
       <c r="AE23" s="1"/>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="27">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B24" s="26">
         <f>'メンバー　業務内容'!C23</f>
         <v>0</v>
       </c>
@@ -3253,12 +3539,12 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="27">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B25" s="26">
         <f>'メンバー　業務内容'!C24</f>
         <v>0</v>
       </c>
@@ -3288,12 +3574,12 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="27">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B26" s="26">
         <f>'メンバー　業務内容'!C25</f>
         <v>0</v>
       </c>
@@ -3323,12 +3609,12 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
       <c r="AE26" s="1"/>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="27">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B27" s="26">
         <f>'メンバー　業務内容'!C26</f>
         <v>0</v>
       </c>
@@ -3358,8 +3644,8 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
       <c r="AE27" s="1"/>
     </row>
   </sheetData>
@@ -3375,5 +3661,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>